--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="218">
   <si>
     <t>anchor score</t>
   </si>
@@ -67,148 +67,148 @@
     <t>risk</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>boost</t>
@@ -1033,10 +1033,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>0.9777777777777777</v>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>0.967741935483871</v>
@@ -1315,7 +1315,7 @@
         <v>100</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7">
         <v>0.9615384615384616</v>
@@ -1365,7 +1365,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -1415,7 +1415,7 @@
         <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1465,7 +1465,7 @@
         <v>365</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10">
         <v>0.9322033898305084</v>
@@ -1515,7 +1515,7 @@
         <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11">
         <v>0.8947368421052632</v>
@@ -1544,28 +1544,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1007194244604317</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="D12">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12">
         <v>0.8727272727272727</v>
@@ -1594,28 +1594,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.09395973154362416</v>
+        <v>0.01651982378854626</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>135</v>
+        <v>893</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13">
         <v>0.8666666666666667</v>
@@ -1644,28 +1644,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01651982378854626</v>
+        <v>0.01445086705202312</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>75</v>
+        <v>438</v>
       </c>
       <c r="E14">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>893</v>
+        <v>1705</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14">
         <v>0.8666666666666667</v>
@@ -1694,28 +1694,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01445086705202312</v>
+        <v>0.01176948051948052</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>438</v>
+        <v>672</v>
       </c>
       <c r="E15">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F15">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1705</v>
+        <v>2435</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15">
         <v>0.8632478632478633</v>
@@ -1744,13 +1744,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01176948051948052</v>
+        <v>0.00579080709373869</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>672</v>
+        <v>454</v>
       </c>
       <c r="E16">
         <v>0.96</v>
@@ -1762,10 +1762,10 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>2435</v>
+        <v>2747</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16">
         <v>0.8611111111111112</v>
@@ -1789,33 +1789,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.00579080709373869</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>454</v>
-      </c>
-      <c r="E17">
-        <v>0.96</v>
-      </c>
-      <c r="F17">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2747</v>
-      </c>
+    <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17">
         <v>0.8346456692913385</v>
@@ -1839,9 +1815,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18">
         <v>0.8297872340425532</v>
@@ -1865,9 +1841,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>0.825</v>
@@ -1891,9 +1867,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K20">
         <v>0.8181818181818182</v>
@@ -1917,9 +1893,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21">
         <v>0.8181818181818182</v>
@@ -1943,9 +1919,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>0.8076923076923077</v>
@@ -1969,9 +1945,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>0.7936507936507936</v>
@@ -1995,9 +1971,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>0.7777777777777778</v>
@@ -2021,9 +1997,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>0.76</v>
@@ -2047,9 +2023,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>0.759493670886076</v>
@@ -2073,9 +2049,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>0.75</v>
@@ -2099,9 +2075,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>0.75</v>
@@ -2125,9 +2101,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>0.7464788732394366</v>
@@ -2151,9 +2127,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30">
         <v>0.72</v>
@@ -2177,9 +2153,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K31">
         <v>0.7173913043478261</v>
@@ -2203,9 +2179,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K32">
         <v>0.7017543859649122</v>
@@ -2231,7 +2207,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>0.7</v>
@@ -2257,59 +2233,59 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.6965811965811965</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L34">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.6842105263157895</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36">
         <v>0.6764705882352942</v>
@@ -2335,7 +2311,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37">
         <v>0.6585365853658537</v>
@@ -2361,7 +2337,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K38">
         <v>0.6538461538461539</v>
@@ -2387,28 +2363,28 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.6165644171779141</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L39">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="N39">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2416,25 +2392,25 @@
         <v>60</v>
       </c>
       <c r="K40">
-        <v>0.6129032258064516</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2442,25 +2418,25 @@
         <v>61</v>
       </c>
       <c r="K41">
-        <v>0.6119402985074627</v>
+        <v>0.6</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O41">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2468,25 +2444,25 @@
         <v>62</v>
       </c>
       <c r="K42">
-        <v>0.6</v>
+        <v>0.5973684210526315</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="N42">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="O42">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2494,25 +2470,25 @@
         <v>63</v>
       </c>
       <c r="K43">
-        <v>0.5973684210526315</v>
+        <v>0.59375</v>
       </c>
       <c r="L43">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="N43">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>153</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2520,25 +2496,25 @@
         <v>64</v>
       </c>
       <c r="K44">
-        <v>0.59375</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -5429,7 +5405,7 @@
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K156">
         <v>0.2089018843404808</v>
@@ -5689,7 +5665,7 @@
     </row>
     <row r="166" spans="10:17">
       <c r="J166" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K166">
         <v>0.1949952785646837</v>
@@ -6287,7 +6263,7 @@
     </row>
     <row r="189" spans="10:17">
       <c r="J189" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K189">
         <v>0.137519623233909</v>
@@ -6547,7 +6523,7 @@
     </row>
     <row r="199" spans="10:17">
       <c r="J199" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K199">
         <v>0.06295907660020986</v>
